--- a/documenten/Planning/Planning Excel.xlsx
+++ b/documenten/Planning/Planning Excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Documentation</t>
   </si>
   <si>
-    <t>Meetings</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mock-ups </t>
   </si>
   <si>
@@ -63,6 +60,12 @@
     <t>Sprint 3</t>
   </si>
   <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
     <t>Studying Python</t>
   </si>
   <si>
@@ -87,12 +90,12 @@
     <t>Backend Functions</t>
   </si>
   <si>
-    <t>Erik, Jeffrey, Tom</t>
-  </si>
-  <si>
     <t>Frontend Functions</t>
   </si>
   <si>
+    <t>Davy, Erik</t>
+  </si>
+  <si>
     <t>Davy, Jeffrey, Erik</t>
   </si>
   <si>
@@ -103,6 +106,84 @@
   </si>
   <si>
     <t>Bugfixing</t>
+  </si>
+  <si>
+    <t>Discussions/Meetings</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Display Products/Engineers</t>
+  </si>
+  <si>
+    <t>Engineer Note</t>
+  </si>
+  <si>
+    <t>Engineer Level</t>
+  </si>
+  <si>
+    <t>Refresh Search</t>
+  </si>
+  <si>
+    <t>Search Function</t>
+  </si>
+  <si>
+    <t>Country Filter</t>
+  </si>
+  <si>
+    <t>Admin/Logout</t>
+  </si>
+  <si>
+    <t>Add Engineer</t>
+  </si>
+  <si>
+    <t>Edit Engineer</t>
+  </si>
+  <si>
+    <t>Edit Skills Engineer</t>
+  </si>
+  <si>
+    <t>Edit Note Engineer</t>
+  </si>
+  <si>
+    <t>Add Product</t>
+  </si>
+  <si>
+    <t>Edit Product</t>
+  </si>
+  <si>
+    <t>Add Category</t>
+  </si>
+  <si>
+    <t>Edit Category</t>
+  </si>
+  <si>
+    <t>Add User</t>
+  </si>
+  <si>
+    <t>Edit User</t>
+  </si>
+  <si>
+    <t>SkillMatrix/Logout</t>
+  </si>
+  <si>
+    <t>Jeffrey</t>
+  </si>
+  <si>
+    <t>Davy</t>
+  </si>
+  <si>
+    <t>Davy, Erik, Jeffrey</t>
+  </si>
+  <si>
+    <t>Display Items</t>
+  </si>
+  <si>
+    <t>Erik, Davy, Tom</t>
+  </si>
+  <si>
+    <t>Davy ,Erik</t>
   </si>
 </sst>
 </file>
@@ -132,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +223,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -158,10 +245,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutraal 2" xfId="1"/>
@@ -492,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +600,7 @@
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -525,18 +622,24 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -546,67 +649,97 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
+      <c r="D5" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
+      <c r="D7" s="3">
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D9" s="3">
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
+      <c r="D10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D12" s="3">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D13" s="3">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="D14" s="3">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -614,66 +747,347 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="D20" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D21" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>6</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>6</v>
       </c>
-      <c r="C23" t="s">
-        <v>19</v>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="3">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
